--- a/project/test case - 01..xlsx
+++ b/project/test case - 01..xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIMANSHU JOSHI\Desktop\git\SoftwareTesting\project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA88E38-BF96-4971-B092-38B4344B3748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9288"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -780,7 +786,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -901,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -910,143 +916,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,14 +1020,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1103,7 +1068,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1175,7 +1140,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1348,11 +1313,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1371,52 +1336,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -1523,7 +1488,7 @@
       <c r="H7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1540,8 +1505,8 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -1569,10 +1534,10 @@
       <c r="I9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="19"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -1584,8 +1549,8 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -1594,7 +1559,7 @@
       <c r="B11" s="6">
         <v>5</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1613,10 +1578,10 @@
       <c r="I11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="19"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
@@ -1644,10 +1609,10 @@
       <c r="I12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="19"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
@@ -1675,134 +1640,134 @@
       <c r="I13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="19"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="28">
         <v>402</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="26">
         <v>8</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="34" t="s">
+      <c r="G14" s="24"/>
+      <c r="H14" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="19"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
+      <c r="A15" s="28">
         <v>402</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="26">
         <v>9</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="30" t="s">
+      <c r="E15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="34" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="19"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="36">
+      <c r="A16" s="31">
         <v>402</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="23">
         <v>10</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="34" t="s">
+      <c r="G16" s="24"/>
+      <c r="H16" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="19"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
+      <c r="A17" s="28">
         <v>402</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="26">
         <v>11</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="30" t="s">
+      <c r="E17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="34" t="s">
+      <c r="G17" s="24"/>
+      <c r="H17" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="19"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
@@ -1830,10 +1795,10 @@
       <c r="I18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="19"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -1845,8 +1810,8 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
@@ -1874,10 +1839,10 @@
       <c r="I20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="19"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
@@ -1905,10 +1870,10 @@
       <c r="I21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="19"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
@@ -1936,14 +1901,14 @@
       <c r="I22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="19"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1951,8 +1916,8 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
@@ -1970,7 +1935,7 @@
       <c r="E24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="18" t="s">
         <v>79</v>
       </c>
       <c r="G24" s="5"/>
@@ -1980,10 +1945,10 @@
       <c r="I24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="19"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
@@ -2001,7 +1966,7 @@
       <c r="E25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="18" t="s">
         <v>79</v>
       </c>
       <c r="G25" s="5"/>
@@ -2011,10 +1976,10 @@
       <c r="I25" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="19"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
@@ -2042,10 +2007,10 @@
       <c r="I26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="19"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
@@ -2073,10 +2038,10 @@
       <c r="I27" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="19"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
@@ -2106,13 +2071,13 @@
       <c r="I28" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="19"/>
+      <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="21">
         <v>604</v>
       </c>
       <c r="B29" s="6">
@@ -2137,2225 +2102,2225 @@
       <c r="I29" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="19"/>
+      <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A30" s="27">
+      <c r="A30" s="22">
         <v>604</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="23">
         <v>22</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="30" t="s">
+      <c r="E30" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="32" t="s">
+      <c r="G30" s="24"/>
+      <c r="H30" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="I30" s="29" t="s">
+      <c r="I30" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="K30" s="19"/>
-    </row>
-    <row r="31" spans="1:11" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A31" s="36">
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" s="34" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="31">
         <v>604</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="26">
         <v>23</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="30" t="s">
+      <c r="E31" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30" t="s">
+      <c r="G31" s="24"/>
+      <c r="H31" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="I31" s="29" t="s">
+      <c r="I31" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="J31" s="38" t="s">
+      <c r="J31" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="41"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A32" s="43">
+      <c r="A32" s="28">
         <v>604</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32" s="26">
         <v>24</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="44" t="s">
+      <c r="E32" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="41"/>
-      <c r="H32" s="44" t="s">
+      <c r="G32" s="24"/>
+      <c r="H32" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="41" t="s">
+      <c r="I32" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="K32" s="19"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A33" s="45">
+      <c r="A33" s="31">
         <v>604</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="26">
         <v>25</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="44" t="s">
+      <c r="E33" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G33" s="41"/>
-      <c r="H33" s="46" t="s">
+      <c r="G33" s="24"/>
+      <c r="H33" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="I33" s="41" t="s">
+      <c r="I33" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="K33" s="19"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A34" s="43">
+      <c r="A34" s="28">
         <v>604</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34" s="26">
         <v>26</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="44" t="s">
+      <c r="E34" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41" t="s">
+      <c r="G34" s="24"/>
+      <c r="H34" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="I34" s="41" t="s">
+      <c r="I34" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="J34" s="38" t="s">
+      <c r="J34" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="K34" s="19"/>
+      <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A35" s="49">
+      <c r="A35" s="7">
         <v>605</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="6">
         <v>27</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="48" t="s">
+      <c r="E35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19" t="s">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I35" s="19" t="s">
+      <c r="I35" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="19"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="47">
+      <c r="A37" s="16">
         <v>700</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="14">
         <v>28</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="48" t="s">
+      <c r="E37" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19" t="s">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="I37" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="19"/>
+      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="47">
+      <c r="A38" s="16">
         <v>701</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="14">
         <v>29</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="48" t="s">
+      <c r="E38" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19" t="s">
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="19"/>
+      <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="49">
+      <c r="A39" s="7">
         <v>702</v>
       </c>
-      <c r="B39" s="20">
-        <v>30</v>
-      </c>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="6">
+        <v>30</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="48" t="s">
+      <c r="E39" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="G39" s="50" t="s">
+      <c r="G39" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="H39" s="48" t="s">
+      <c r="H39" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="19" t="s">
+      <c r="I39" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="19"/>
+      <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="49">
+      <c r="A40" s="7">
         <v>702</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="6">
         <v>31</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="48" t="s">
+      <c r="E40" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="50" t="s">
+      <c r="G40" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="H40" s="48" t="s">
+      <c r="H40" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="I40" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J40" s="20" t="s">
+      <c r="J40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="19"/>
+      <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="49">
+      <c r="A41" s="7">
         <v>702</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="6">
         <v>32</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="48" t="s">
+      <c r="E41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G41" s="50" t="s">
+      <c r="G41" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="H41" s="48" t="s">
+      <c r="H41" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="I41" s="19" t="s">
+      <c r="I41" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K41" s="19"/>
+      <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="49">
+      <c r="A42" s="7">
         <v>702</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="6">
         <v>33</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="48" t="s">
+      <c r="E42" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="50" t="s">
+      <c r="G42" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="H42" s="48" t="s">
+      <c r="H42" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="I42" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="20" t="s">
+      <c r="J42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="19"/>
+      <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="49">
+      <c r="A43" s="7">
         <v>702</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="6">
         <v>34</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="48" t="s">
+      <c r="E43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G43" s="48" t="s">
+      <c r="G43" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H43" s="48" t="s">
+      <c r="H43" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="I43" s="19" t="s">
+      <c r="I43" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K43" s="19"/>
+      <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="49">
+      <c r="A44" s="7">
         <v>702</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="6">
         <v>35</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="48" t="s">
+      <c r="E44" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G44" s="50" t="s">
+      <c r="G44" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="H44" s="48" t="s">
+      <c r="H44" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="I44" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J44" s="20" t="s">
+      <c r="J44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="19"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="49">
+      <c r="A45" s="7">
         <v>702</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="6">
         <v>36</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E45" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="48" t="s">
+      <c r="E45" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="48" t="s">
+      <c r="G45" s="5"/>
+      <c r="H45" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="I45" s="19" t="s">
+      <c r="I45" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J45" s="20" t="s">
+      <c r="J45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="19"/>
+      <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="47">
+      <c r="A46" s="16">
         <v>703</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="6">
         <v>37</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E46" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="48" t="s">
+      <c r="E46" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19" t="s">
+      <c r="G46" s="5"/>
+      <c r="H46" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="I46" s="19" t="s">
+      <c r="I46" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="20" t="s">
+      <c r="J46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K46" s="19"/>
+      <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="49">
+      <c r="A47" s="7">
         <v>704</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="6">
         <v>38</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E47" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="48" t="s">
+      <c r="E47" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19" t="s">
+      <c r="G47" s="5"/>
+      <c r="H47" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I47" s="19" t="s">
+      <c r="I47" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J47" s="20"/>
-      <c r="K47" s="19"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="47">
+      <c r="A48" s="16">
         <v>705</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="6">
         <v>39</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E48" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="48" t="s">
+      <c r="E48" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19" t="s">
+      <c r="G48" s="5"/>
+      <c r="H48" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="I48" s="19" t="s">
+      <c r="I48" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J48" s="20"/>
-      <c r="K48" s="19"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="47"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="19"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="49">
+      <c r="A50" s="7">
         <v>800</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="6">
         <v>40</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="48" t="s">
+      <c r="E50" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19" t="s">
+      <c r="G50" s="5"/>
+      <c r="H50" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="I50" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="J50" s="20" t="s">
+      <c r="J50" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K50" s="19"/>
+      <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="49">
+      <c r="A51" s="7">
         <v>801</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="8">
         <v>41</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="48" t="s">
+      <c r="E51" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19" t="s">
+      <c r="G51" s="5"/>
+      <c r="H51" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="I51" s="19" t="s">
+      <c r="I51" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="J51" s="20" t="s">
+      <c r="J51" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K51" s="19"/>
+      <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="49">
+      <c r="A52" s="7">
         <v>802</v>
       </c>
-      <c r="B52" s="20">
+      <c r="B52" s="6">
         <v>42</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="48" t="s">
+      <c r="D52" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E52" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="48" t="s">
+      <c r="E52" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="G52" s="48" t="s">
+      <c r="G52" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="H52" s="48" t="s">
+      <c r="H52" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="I52" s="19" t="s">
+      <c r="I52" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="J52" s="20" t="s">
+      <c r="J52" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K52" s="19"/>
+      <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="49">
+      <c r="A53" s="7">
         <v>802</v>
       </c>
-      <c r="B53" s="20">
+      <c r="B53" s="6">
         <v>43</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D53" s="48" t="s">
+      <c r="D53" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="48" t="s">
+      <c r="E53" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="G53" s="48" t="s">
+      <c r="G53" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="H53" s="48" t="s">
+      <c r="H53" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="I53" s="19" t="s">
+      <c r="I53" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J53" s="20" t="s">
+      <c r="J53" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K53" s="19"/>
+      <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="49">
+      <c r="A54" s="7">
         <v>802</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="6">
         <v>44</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D54" s="48" t="s">
+      <c r="D54" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="48" t="s">
+      <c r="E54" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="48" t="s">
+      <c r="G54" s="5"/>
+      <c r="H54" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="I54" s="19" t="s">
+      <c r="I54" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="J54" s="20" t="s">
+      <c r="J54" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K54" s="19"/>
+      <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="49">
+      <c r="A55" s="7">
         <v>802</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="6">
         <v>45</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="D55" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E55" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" s="48" t="s">
+      <c r="E55" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="G55" s="48" t="s">
+      <c r="G55" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="H55" s="19" t="s">
+      <c r="H55" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I55" s="19" t="s">
+      <c r="I55" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J55" s="20" t="s">
+      <c r="J55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K55" s="19"/>
+      <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="49">
+      <c r="A56" s="7">
         <v>802</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="6">
         <v>46</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D56" s="48" t="s">
+      <c r="D56" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E56" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" s="48" t="s">
+      <c r="E56" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="G56" s="48" t="s">
+      <c r="G56" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="H56" s="19" t="s">
+      <c r="H56" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I56" s="19" t="s">
+      <c r="I56" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J56" s="20" t="s">
+      <c r="J56" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="19"/>
+      <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="49">
+      <c r="A57" s="7">
         <v>803</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="6">
         <v>47</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" s="48" t="s">
+      <c r="E57" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19" t="s">
+      <c r="G57" s="5"/>
+      <c r="H57" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="I57" s="19" t="s">
+      <c r="I57" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J57" s="20" t="s">
+      <c r="J57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K57" s="19"/>
+      <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="49">
+      <c r="A59" s="7">
         <v>900</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="6">
         <v>48</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="48" t="s">
+      <c r="D59" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="E59" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" s="48" t="s">
+      <c r="E59" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="G59" s="19"/>
-      <c r="H59" s="51" t="s">
+      <c r="G59" s="5"/>
+      <c r="H59" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="I59" s="19" t="s">
+      <c r="I59" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="J59" s="20" t="s">
+      <c r="J59" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K59" s="19"/>
+      <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="49">
+      <c r="A60" s="7">
         <v>901</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="6">
         <v>49</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D60" s="48" t="s">
+      <c r="D60" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="E60" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F60" s="48" t="s">
+      <c r="E60" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19" t="s">
+      <c r="G60" s="5"/>
+      <c r="H60" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I60" s="19" t="s">
+      <c r="I60" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="J60" s="20" t="s">
+      <c r="J60" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K60" s="19"/>
+      <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="49">
+      <c r="A62" s="7">
         <v>1001</v>
       </c>
-      <c r="B62" s="20">
+      <c r="B62" s="6">
         <v>50</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E62" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="48" t="s">
+      <c r="E62" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="48" t="s">
+      <c r="G62" s="5"/>
+      <c r="H62" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="I62" s="19" t="s">
+      <c r="I62" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J62" s="20" t="s">
+      <c r="J62" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K62" s="19"/>
+      <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="49">
+      <c r="A63" s="7">
         <v>1002</v>
       </c>
-      <c r="B63" s="20">
+      <c r="B63" s="6">
         <v>51</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D63" s="48" t="s">
+      <c r="D63" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="E63" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="48" t="s">
+      <c r="E63" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19" t="s">
+      <c r="G63" s="5"/>
+      <c r="H63" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I63" s="48" t="s">
+      <c r="I63" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="J63" s="20" t="s">
+      <c r="J63" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K63" s="19"/>
+      <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="49">
+      <c r="A64" s="7">
         <v>1003</v>
       </c>
-      <c r="B64" s="20">
+      <c r="B64" s="6">
         <v>52</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D64" s="48" t="s">
+      <c r="D64" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="E64" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="48" t="s">
+      <c r="E64" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19" t="s">
+      <c r="G64" s="5"/>
+      <c r="H64" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="I64" s="48" t="s">
+      <c r="I64" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="J64" s="20" t="s">
+      <c r="J64" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K64" s="19"/>
+      <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="49">
+      <c r="A65" s="7">
         <v>1004</v>
       </c>
-      <c r="B65" s="20">
+      <c r="B65" s="6">
         <v>53</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E65" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="48" t="s">
+      <c r="E65" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19" t="s">
+      <c r="G65" s="5"/>
+      <c r="H65" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I65" s="48" t="s">
+      <c r="I65" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="40"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="49">
+      <c r="A67" s="7">
         <v>1100</v>
       </c>
-      <c r="B67" s="20">
+      <c r="B67" s="6">
         <v>54</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E67" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F67" s="48" t="s">
+      <c r="E67" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19" t="s">
+      <c r="G67" s="5"/>
+      <c r="H67" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="I67" s="19" t="s">
+      <c r="I67" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="J67" s="20" t="s">
+      <c r="J67" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K67" s="19"/>
+      <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="49">
+      <c r="A68" s="7">
         <v>1101</v>
       </c>
-      <c r="B68" s="20">
+      <c r="B68" s="6">
         <v>55</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E68" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" s="48" t="s">
+      <c r="E68" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19" t="s">
+      <c r="G68" s="5"/>
+      <c r="H68" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="I68" s="19" t="s">
+      <c r="I68" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="J68" s="20" t="s">
+      <c r="J68" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K68" s="19"/>
+      <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A69" s="49">
+      <c r="A69" s="7">
         <v>1102</v>
       </c>
-      <c r="B69" s="20">
+      <c r="B69" s="6">
         <v>56</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E69" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F69" s="48" t="s">
+      <c r="E69" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19" t="s">
+      <c r="G69" s="5"/>
+      <c r="H69" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="I69" s="19" t="s">
+      <c r="I69" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J69" s="20" t="s">
+      <c r="J69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K69" s="19"/>
+      <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="49">
+      <c r="A70" s="7">
         <v>1103</v>
       </c>
-      <c r="B70" s="20">
+      <c r="B70" s="6">
         <v>57</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E70" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" s="48" t="s">
+      <c r="E70" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G70" s="19"/>
-      <c r="H70" s="48" t="s">
+      <c r="G70" s="5"/>
+      <c r="H70" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="I70" s="48" t="s">
+      <c r="I70" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="J70" s="20" t="s">
+      <c r="J70" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K70" s="19"/>
+      <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A71" s="43">
+      <c r="A71" s="28">
         <v>1103</v>
       </c>
-      <c r="B71" s="38">
+      <c r="B71" s="26">
         <v>58</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="D71" s="41" t="s">
+      <c r="D71" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="E71" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" s="44" t="s">
+      <c r="E71" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41" t="s">
+      <c r="G71" s="24"/>
+      <c r="H71" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="I71" s="44" t="s">
+      <c r="I71" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="J71" s="38" t="s">
+      <c r="J71" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="K71" s="19"/>
+      <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A72" s="49">
+      <c r="A72" s="7">
         <v>1103</v>
       </c>
-      <c r="B72" s="20">
+      <c r="B72" s="6">
         <v>59</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E72" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" s="55" t="s">
+      <c r="E72" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19" t="s">
+      <c r="G72" s="5"/>
+      <c r="H72" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="I72" s="19" t="s">
+      <c r="I72" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J72" s="20" t="s">
+      <c r="J72" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K72" s="19"/>
+      <c r="K72" s="5"/>
     </row>
     <row r="73" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="49">
+      <c r="A73" s="7">
         <v>1104</v>
       </c>
-      <c r="B73" s="20">
+      <c r="B73" s="6">
         <v>60</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E73" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F73" s="55" t="s">
+      <c r="E73" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="48" t="s">
+      <c r="G73" s="5"/>
+      <c r="H73" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="I73" s="19" t="s">
+      <c r="I73" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J73" s="20" t="s">
+      <c r="J73" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K73" s="19"/>
+      <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A74" s="49">
+      <c r="A74" s="7">
         <v>1104</v>
       </c>
-      <c r="B74" s="20">
+      <c r="B74" s="6">
         <v>61</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C74" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E74" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" s="55" t="s">
+      <c r="E74" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19" t="s">
+      <c r="G74" s="5"/>
+      <c r="H74" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="I74" s="19" t="s">
+      <c r="I74" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J74" s="20" t="s">
+      <c r="J74" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K74" s="19"/>
+      <c r="K74" s="5"/>
     </row>
     <row r="75" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A75" s="43">
+      <c r="A75" s="28">
         <v>1104</v>
       </c>
-      <c r="B75" s="38">
+      <c r="B75" s="26">
         <v>62</v>
       </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="D75" s="41" t="s">
+      <c r="D75" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="E75" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F75" s="44" t="s">
+      <c r="E75" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41" t="s">
+      <c r="G75" s="24"/>
+      <c r="H75" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="I75" s="44" t="s">
+      <c r="I75" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="J75" s="38" t="s">
+      <c r="J75" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="K75" s="19"/>
+      <c r="K75" s="5"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
+      <c r="A103" s="4"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
+      <c r="A114" s="4"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
+      <c r="A115" s="4"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
+      <c r="A116" s="4"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
+      <c r="A117" s="4"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
+      <c r="A118" s="4"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
+      <c r="A119" s="4"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
+      <c r="A120" s="4"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
+      <c r="A121" s="4"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
+      <c r="A122" s="4"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
+      <c r="A123" s="4"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
+      <c r="A124" s="4"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B140" s="19"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B142" s="19"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B143" s="19"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B144" s="19"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B145" s="19"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B152" s="19"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4377,7 +4342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4389,7 +4354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
